--- a/Result/Orbit/Manufacturing/USA.xlsx
+++ b/Result/Orbit/Manufacturing/USA.xlsx
@@ -463,7 +463,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>16.08717737576003</v>
+        <v>16.13257115575171</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>15.7743252610376</v>
+        <v>15.83774441753332</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>15.45906690508512</v>
+        <v>15.54490594641536</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>15.11507499065894</v>
+        <v>15.24388293525696</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>13.91930940251579</v>
+        <v>14.89079685871229</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>13.45287764024212</v>
+        <v>13.52666328196631</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>13.3165117541749</v>
+        <v>13.13597659350508</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>13.17418108165371</v>
+        <v>13.13219214844208</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>12.98331951941368</v>
+        <v>13.04299635684865</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>12.99072266531401</v>
+        <v>12.86716128209014</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>12.76975661036177</v>
+        <v>12.9287013127739</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>12.21673020060782</v>
+        <v>12.7021152622311</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>11.69878959461227</v>
+        <v>12.09088964932788</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>11.90608509753218</v>
+        <v>11.4781793463607</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>11.94724683215558</v>
+        <v>11.74393831574965</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>11.85756063027308</v>
+        <v>11.82369068768366</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>11.79811646038965</v>
+        <v>11.8011033371172</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>11.65547548994952</v>
+        <v>11.73023894753463</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>11.66231343029535</v>
+        <v>11.53167104100075</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>11.22363791652988</v>
+        <v>11.6484750855707</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -704,50 +704,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>11.22363793963747</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>11.20121057034817</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.65889017144203</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.76001003608643</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>11.22363793963747</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>11.04014188837804</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.08480409660942</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.89503757175537</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>11.22363793963747</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>10.83656961562079</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.767374120531951</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.01383054263027</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>11.22363793963747</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>10.81256066632779</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.221864562192085</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.21208498229727</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>11.22363793963747</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>10.75506124204886</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.814748559330036</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.28480944467489</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -795,7 +815,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>16.08717737576003</v>
+        <v>16.01406831065417</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -805,7 +825,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>15.7743252610376</v>
+        <v>15.7193301681031</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -815,7 +835,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>15.45906690508512</v>
+        <v>15.53087883991653</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -825,7 +845,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>15.11507499065894</v>
+        <v>15.32663312749297</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -835,7 +855,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>13.91930940251579</v>
+        <v>14.97086872143937</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -845,7 +865,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>13.45287764024212</v>
+        <v>13.59489622553565</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -855,7 +875,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>13.3165117541749</v>
+        <v>13.04368369566599</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -865,7 +885,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>13.17418108165371</v>
+        <v>13.08371270464144</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -875,7 +895,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>12.98331951941368</v>
+        <v>12.97894165451276</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -885,7 +905,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>12.99072266531401</v>
+        <v>12.9172453297103</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -895,7 +915,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>12.76975661036177</v>
+        <v>12.9887572315871</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -905,7 +925,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>12.21673020060782</v>
+        <v>12.74294183730215</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -915,7 +935,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>11.69878959461227</v>
+        <v>12.09700847297865</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -925,7 +945,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>11.90608509753218</v>
+        <v>11.43660090264205</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -935,7 +955,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>11.94724683215558</v>
+        <v>11.80767370202931</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -945,7 +965,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>11.85756063027308</v>
+        <v>11.92314959232081</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -955,7 +975,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>11.79811646038965</v>
+        <v>11.83931328326297</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -965,7 +985,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>11.65547548994952</v>
+        <v>11.80102018206526</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>11.66231343029535</v>
+        <v>11.56966264728975</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>11.22363791652988</v>
+        <v>11.53599967655959</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>2017</v>
       </c>
       <c r="B22" t="n">
-        <v>11.25487168998816</v>
+        <v>11.06132325266319</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>2018</v>
       </c>
       <c r="B23" t="n">
-        <v>11.34219756039769</v>
+        <v>11.17386861152533</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>2019</v>
       </c>
       <c r="B24" t="n">
-        <v>11.07164491768661</v>
+        <v>11.27615868960162</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>2020</v>
       </c>
       <c r="B25" t="n">
-        <v>11.18777772755131</v>
+        <v>10.97725839277533</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>2021</v>
       </c>
       <c r="B26" t="n">
-        <v>10.21250954140172</v>
+        <v>11.16082012614272</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1086,50 +1106,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>10.21250995841501</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>10.13241744191804</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.331005776666466</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.83248173907991</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>10.21250995841501</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>9.997640768671541</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.598106108944865</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.91135822603002</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>10.21250995841501</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>9.847958792776677</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.011120658413939</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.84669017741499</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>10.21250995841501</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>9.792100570230952</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.403489085775127</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.95801998511436</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>10.21250995841501</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>9.657568344478749</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.840235674909836</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.13738857112926</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
